--- a/data_example2.xlsx
+++ b/data_example2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ltuppsala-my.sharepoint.com/personal/scb010_lul_se/Documents/git_projects/kollektivtrafikbarometer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive\OneDrive - Region Uppsala\git_projects\kollektivtrafikbarometer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E615DA0-BF67-4557-A5E6-A6D4E326789D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B72AA26A-AB7B-4E39-B465-E8937ED4BC46}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12375" xr2:uid="{D8F83503-1F07-4022-B857-2624FCD279E9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5502" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5412" uniqueCount="432">
   <si>
     <t>A1</t>
   </si>
@@ -1125,21 +1125,12 @@
     <t>SL</t>
   </si>
   <si>
-    <t>Sysslomansgatan, Uppsala, Sweden</t>
-  </si>
-  <si>
     <t>SE- Sweden</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>Björkgatan 30, Uppsala, Sweden</t>
-  </si>
-  <si>
-    <t>Björkgatan 30, 753 23 Uppsala, Sweden</t>
-  </si>
-  <si>
     <t>753 23</t>
   </si>
   <si>
@@ -1176,9 +1167,6 @@
     <t>Regionaltrafik</t>
   </si>
   <si>
-    <t>STOR-RÅNGSEN 101, 742 94 Östhammar, Sverige</t>
-  </si>
-  <si>
     <t>SE- Sverige</t>
   </si>
   <si>
@@ -1191,15 +1179,9 @@
     <t>Östhammar Ö</t>
   </si>
   <si>
-    <t>Skölstavägen, 754 49 Uppsala, Sverige</t>
-  </si>
-  <si>
     <t>754 49</t>
   </si>
   <si>
-    <t>675, 747 92 Alunda, Sverige</t>
-  </si>
-  <si>
     <t>747 92</t>
   </si>
   <si>
@@ -1212,9 +1194,6 @@
     <t>2/27/2018</t>
   </si>
   <si>
-    <t>NORR-GÅSGRUND 102, 742 97 Gräsö, Sverige</t>
-  </si>
-  <si>
     <t>742 97</t>
   </si>
   <si>
@@ -1227,9 +1206,6 @@
     <t>Knivsta</t>
   </si>
   <si>
-    <t>269, 197 93 Bro, Sverige</t>
-  </si>
-  <si>
     <t>Stockholms län</t>
   </si>
   <si>
@@ -1242,12 +1218,6 @@
     <t>Upplands-Bro N</t>
   </si>
   <si>
-    <t>Svartbäcksgatan, Uppsala, Sverige</t>
-  </si>
-  <si>
-    <t>Saltvik, Åland</t>
-  </si>
-  <si>
     <t>Ålands landsbygd</t>
   </si>
   <si>
@@ -1263,12 +1233,6 @@
     <t>Bålsta</t>
   </si>
   <si>
-    <t>Heby, Sverige</t>
-  </si>
-  <si>
-    <t>Unnamed Road, 763 91 Hallstavik, Sweden</t>
-  </si>
-  <si>
     <t>763 91</t>
   </si>
   <si>
@@ -1278,9 +1242,6 @@
     <t>Norrtälje NV</t>
   </si>
   <si>
-    <t>Thunbergsvägen 3B, 752 38 Uppsala, Sweden</t>
-  </si>
-  <si>
     <t>752 38</t>
   </si>
   <si>
@@ -1293,69 +1254,36 @@
     <t>SJ</t>
   </si>
   <si>
-    <t>Långören, 760 40 Väddö, Sverige</t>
-  </si>
-  <si>
     <t>Väddö</t>
   </si>
   <si>
-    <t>Årstaskolan, Uppsala, Sverige</t>
-  </si>
-  <si>
-    <t>Sparrisgatan 4, 753 75 Uppsala, Sverige</t>
-  </si>
-  <si>
     <t>753 75</t>
   </si>
   <si>
     <t>Årsta</t>
   </si>
   <si>
-    <t>Uppsala Stationsgatan, Uppsala, Sverige</t>
-  </si>
-  <si>
-    <t>753 31 Uppsala, Sverige</t>
-  </si>
-  <si>
     <t>753 31</t>
   </si>
   <si>
     <t>Fålhagen</t>
   </si>
   <si>
-    <t>Uppsala Årstaskolan, Uppsala, Sverige</t>
-  </si>
-  <si>
-    <t>754 46 Uppsala, Sverige</t>
-  </si>
-  <si>
     <t>754 46</t>
   </si>
   <si>
     <t>Boländerna, Uppsala, Sverige</t>
   </si>
   <si>
-    <t>Lillsjövägen, Bålsta, Sverige</t>
-  </si>
-  <si>
-    <t>Lillsjövägen, 746 31 Bålsta, Sverige</t>
-  </si>
-  <si>
     <t>746 31</t>
   </si>
   <si>
     <t>Centrum-Fånäs-Nydal-Västerängen</t>
   </si>
   <si>
-    <t>Fagerstagatan, Spånga, Sverige</t>
-  </si>
-  <si>
     <t>Spånga</t>
   </si>
   <si>
-    <t>VIK 2, 155 93 Nykvarn, Sverige</t>
-  </si>
-  <si>
     <t>155 93</t>
   </si>
   <si>
@@ -1380,19 +1308,10 @@
     <t>Har inte behov av kollektivtrafik</t>
   </si>
   <si>
-    <t>UTK-hallen, Edith Södergrans gata, Uppsala, Sweden</t>
-  </si>
-  <si>
-    <t>Edith Södergrans gata 7, 754 60 Uppsala, Sweden</t>
-  </si>
-  <si>
     <t>754 60</t>
   </si>
   <si>
     <t>Gränby</t>
-  </si>
-  <si>
-    <t>PELARGÅNGEN 1F, 190 60 Stockholm-Arlanda, Sverige</t>
   </si>
   <si>
     <t>190 60</t>
@@ -1408,6 +1327,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1437,9 +1359,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1756,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F12DD4A-6873-4383-BC31-B2A62379C02C}">
   <dimension ref="A1:MR20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:MR20"/>
+    <sheetView tabSelected="1" topLeftCell="IM1" workbookViewId="0">
+      <selection activeCell="IX11" sqref="IX11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5207,11 +5130,13 @@
       <c r="BZ4" t="s">
         <v>356</v>
       </c>
-      <c r="CA4">
-        <v>60.160040799999997</v>
-      </c>
-      <c r="CB4">
-        <v>17.651153499999999</v>
+      <c r="CA4" s="2">
+        <f t="shared" ref="CA4:CA7" ca="1" si="0">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.203783676380446</v>
+      </c>
+      <c r="CB4" s="2">
+        <f t="shared" ref="CB4:CB7" ca="1" si="1">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.231493072102719</v>
       </c>
       <c r="CC4" t="s">
         <v>356</v>
@@ -5231,29 +5156,37 @@
       <c r="CH4" t="s">
         <v>356</v>
       </c>
-      <c r="CI4">
-        <v>59.862564800000001</v>
-      </c>
-      <c r="CJ4">
-        <v>17.624802299999999</v>
-      </c>
-      <c r="CK4">
-        <v>59.853452699999998</v>
-      </c>
-      <c r="CL4">
-        <v>17.665701800000001</v>
-      </c>
-      <c r="CM4">
-        <v>60.160040799999997</v>
-      </c>
-      <c r="CN4">
-        <v>17.651153499999999</v>
-      </c>
-      <c r="CO4">
-        <v>60.160055300000003</v>
-      </c>
-      <c r="CP4">
-        <v>17.6497168</v>
+      <c r="CI4" s="2">
+        <f t="shared" ref="CI4:CI7" ca="1" si="2">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.470560804137193</v>
+      </c>
+      <c r="CJ4" s="2">
+        <f t="shared" ref="CJ4:CJ7" ca="1" si="3">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.627063957415384</v>
+      </c>
+      <c r="CK4" s="2">
+        <f t="shared" ref="CK4:CK5" ca="1" si="4">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.661030889387568</v>
+      </c>
+      <c r="CL4" s="2">
+        <f t="shared" ref="CL4:CL5" ca="1" si="5">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.686039508271783</v>
+      </c>
+      <c r="CM4" s="2">
+        <f t="shared" ref="CM4" ca="1" si="6">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.912950968522338</v>
+      </c>
+      <c r="CN4" s="2">
+        <f t="shared" ref="CN4" ca="1" si="7">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.743447367954793</v>
+      </c>
+      <c r="CO4" s="2">
+        <f t="shared" ref="CO4" ca="1" si="8">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.57362441817169</v>
+      </c>
+      <c r="CP4" s="2">
+        <f t="shared" ref="CP4" ca="1" si="9">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.154968423253756</v>
       </c>
       <c r="CQ4" s="1">
         <v>0.22916666666666666</v>
@@ -5675,125 +5608,121 @@
       <c r="HZ4" t="s">
         <v>356</v>
       </c>
-      <c r="IA4" t="s">
-        <v>366</v>
-      </c>
-      <c r="IB4" t="s">
-        <v>366</v>
-      </c>
-      <c r="IC4">
-        <v>59.862564800000001</v>
-      </c>
-      <c r="ID4">
-        <v>17.624802299999999</v>
+      <c r="IC4" s="2">
+        <f t="shared" ref="IC4:IC7" ca="1" si="10">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.179419802381908</v>
+      </c>
+      <c r="ID4" s="2">
+        <f t="shared" ref="ID4:ID7" ca="1" si="11">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.332767901582677</v>
       </c>
       <c r="IE4" t="s">
         <v>362</v>
       </c>
       <c r="IF4" t="s">
+        <v>366</v>
+      </c>
+      <c r="IG4" t="s">
         <v>367</v>
       </c>
-      <c r="IG4" t="s">
-        <v>368</v>
-      </c>
       <c r="IH4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="II4" t="s">
         <v>360</v>
       </c>
       <c r="IJ4" t="s">
-        <v>368</v>
-      </c>
-      <c r="IK4" t="s">
-        <v>369</v>
-      </c>
-      <c r="IL4" t="s">
-        <v>370</v>
-      </c>
-      <c r="IM4">
-        <v>59.853452699999998</v>
-      </c>
-      <c r="IN4">
-        <v>17.665701800000001</v>
+        <v>367</v>
+      </c>
+      <c r="IM4" s="2">
+        <f t="shared" ref="IM4" ca="1" si="12">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.118263650049236</v>
+      </c>
+      <c r="IN4" s="2">
+        <f t="shared" ref="IN4" ca="1" si="13">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.334323729998083</v>
       </c>
       <c r="IO4" t="s">
         <v>362</v>
       </c>
       <c r="IP4" t="s">
+        <v>366</v>
+      </c>
+      <c r="IQ4" t="s">
         <v>367</v>
       </c>
-      <c r="IQ4" t="s">
+      <c r="IR4" t="s">
         <v>368</v>
-      </c>
-      <c r="IR4" t="s">
-        <v>371</v>
       </c>
       <c r="IS4" t="s">
         <v>360</v>
       </c>
       <c r="IT4" t="s">
+        <v>369</v>
+      </c>
+      <c r="IU4" t="s">
+        <v>356</v>
+      </c>
+      <c r="IV4" t="s">
+        <v>356</v>
+      </c>
+      <c r="IW4" s="2">
+        <f t="shared" ref="IW4" ca="1" si="14">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.374109755133453</v>
+      </c>
+      <c r="IX4" s="2">
+        <f t="shared" ref="IX4" ca="1" si="15">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.247031293181902</v>
+      </c>
+      <c r="IY4" t="s">
+        <v>356</v>
+      </c>
+      <c r="IZ4" t="s">
+        <v>356</v>
+      </c>
+      <c r="JA4" t="s">
+        <v>356</v>
+      </c>
+      <c r="JB4" t="s">
+        <v>356</v>
+      </c>
+      <c r="JC4" t="s">
+        <v>356</v>
+      </c>
+      <c r="JD4" t="s">
+        <v>356</v>
+      </c>
+      <c r="JE4" t="s">
+        <v>370</v>
+      </c>
+      <c r="JF4" t="s">
+        <v>371</v>
+      </c>
+      <c r="JG4" s="2">
+        <f t="shared" ref="JG4" ca="1" si="16">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.415800565575914</v>
+      </c>
+      <c r="JH4" s="2">
+        <f t="shared" ref="JH4" ca="1" si="17">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.454865149679176</v>
+      </c>
+      <c r="JI4" t="s">
         <v>372</v>
       </c>
-      <c r="IU4" t="s">
-        <v>356</v>
-      </c>
-      <c r="IV4" t="s">
-        <v>356</v>
-      </c>
-      <c r="IW4">
-        <v>60.160040799999997</v>
-      </c>
-      <c r="IX4">
-        <v>17.651153499999999</v>
-      </c>
-      <c r="IY4" t="s">
-        <v>356</v>
-      </c>
-      <c r="IZ4" t="s">
-        <v>356</v>
-      </c>
-      <c r="JA4" t="s">
-        <v>356</v>
-      </c>
-      <c r="JB4" t="s">
-        <v>356</v>
-      </c>
-      <c r="JC4" t="s">
-        <v>356</v>
-      </c>
-      <c r="JD4" t="s">
-        <v>356</v>
-      </c>
-      <c r="JE4" t="s">
+      <c r="JJ4" t="s">
+        <v>366</v>
+      </c>
+      <c r="JK4" t="s">
         <v>373</v>
       </c>
-      <c r="JF4" t="s">
+      <c r="JL4" t="s">
         <v>374</v>
       </c>
-      <c r="JG4">
-        <v>60.160055300000003</v>
-      </c>
-      <c r="JH4">
-        <v>17.6497168</v>
-      </c>
-      <c r="JI4" t="s">
+      <c r="JM4" t="s">
         <v>375</v>
       </c>
-      <c r="JJ4" t="s">
+      <c r="JN4" t="s">
         <v>367</v>
-      </c>
-      <c r="JK4" t="s">
-        <v>376</v>
-      </c>
-      <c r="JL4" t="s">
-        <v>377</v>
-      </c>
-      <c r="JM4" t="s">
-        <v>378</v>
-      </c>
-      <c r="JN4" t="s">
-        <v>368</v>
       </c>
       <c r="JO4" t="s">
         <v>356</v>
@@ -5988,19 +5917,19 @@
         <v>16</v>
       </c>
       <c r="MA4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="MB4">
         <v>3</v>
       </c>
       <c r="MC4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="MD4">
         <v>360</v>
       </c>
       <c r="ME4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="MF4">
         <v>1</v>
@@ -6015,7 +5944,7 @@
         <v>74894</v>
       </c>
       <c r="MJ4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="MK4">
         <v>0</v>
@@ -6030,7 +5959,7 @@
         <v>1</v>
       </c>
       <c r="MO4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="MP4">
         <v>1</v>
@@ -6271,47 +6200,47 @@
       <c r="BX5" t="s">
         <v>356</v>
       </c>
-      <c r="BY5" t="s">
-        <v>383</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>383</v>
-      </c>
-      <c r="CA5">
-        <v>59.869068599999999</v>
-      </c>
-      <c r="CB5">
-        <v>17.644910800000002</v>
+      <c r="CA5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>58.90647167360563</v>
+      </c>
+      <c r="CB5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.562071958567625</v>
       </c>
       <c r="CC5" t="s">
         <v>362</v>
       </c>
       <c r="CD5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="CE5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="CF5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="CG5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="CH5" t="s">
-        <v>387</v>
-      </c>
-      <c r="CI5">
-        <v>59.8766441</v>
-      </c>
-      <c r="CJ5">
-        <v>17.695645200000001</v>
-      </c>
-      <c r="CK5">
-        <v>59.869068599999999</v>
-      </c>
-      <c r="CL5">
-        <v>17.644910800000002</v>
+        <v>383</v>
+      </c>
+      <c r="CI5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>58.945969090991838</v>
+      </c>
+      <c r="CJ5" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>17.990794174275806</v>
+      </c>
+      <c r="CK5" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>58.23653599702002</v>
+      </c>
+      <c r="CL5" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>17.539186599982006</v>
       </c>
       <c r="CM5" t="s">
         <v>356</v>
@@ -6745,65 +6674,57 @@
       <c r="HZ5" t="s">
         <v>356</v>
       </c>
-      <c r="IA5" t="s">
-        <v>388</v>
-      </c>
-      <c r="IB5" t="s">
-        <v>388</v>
-      </c>
-      <c r="IC5">
-        <v>59.8766441</v>
-      </c>
-      <c r="ID5">
-        <v>17.695645200000001</v>
+      <c r="IC5" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>58.137368801327767</v>
+      </c>
+      <c r="ID5" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>17.608890225712635</v>
       </c>
       <c r="IE5" t="s">
         <v>362</v>
       </c>
       <c r="IF5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="IG5" t="s">
         <v>360</v>
       </c>
       <c r="IH5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="II5" t="s">
         <v>360</v>
       </c>
       <c r="IJ5" t="s">
-        <v>368</v>
-      </c>
-      <c r="IK5" t="s">
-        <v>390</v>
-      </c>
-      <c r="IL5" t="s">
-        <v>390</v>
-      </c>
-      <c r="IM5">
-        <v>59.869068599999999</v>
-      </c>
-      <c r="IN5">
-        <v>17.644910800000002</v>
+        <v>367</v>
+      </c>
+      <c r="IM5" s="2">
+        <f t="shared" ref="IM5" ca="1" si="18">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.601597287838715</v>
+      </c>
+      <c r="IN5" s="2">
+        <f t="shared" ref="IN5" ca="1" si="19">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.827173162689405</v>
       </c>
       <c r="IO5" t="s">
         <v>362</v>
       </c>
       <c r="IP5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="IQ5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="IR5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="IS5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="IT5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="IU5" t="s">
         <v>356</v>
@@ -7043,7 +6964,7 @@
         <v>180203600</v>
       </c>
       <c r="LV5" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="LW5">
         <v>5.9009395619999996</v>
@@ -7070,7 +6991,7 @@
         <v>380</v>
       </c>
       <c r="ME5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="MF5">
         <v>1</v>
@@ -7341,41 +7262,39 @@
       <c r="BX6" t="s">
         <v>356</v>
       </c>
-      <c r="BY6" t="s">
-        <v>395</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>395</v>
-      </c>
-      <c r="CA6">
-        <v>60.428616900000002</v>
-      </c>
-      <c r="CB6">
-        <v>18.621569399999998</v>
+      <c r="CA6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>58.063775512100939</v>
+      </c>
+      <c r="CB6" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.284583279556028</v>
       </c>
       <c r="CC6" t="s">
         <v>362</v>
       </c>
       <c r="CD6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="CE6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="CF6" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="CG6" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="CH6" t="s">
-        <v>387</v>
-      </c>
-      <c r="CI6">
-        <v>59.732975199999998</v>
-      </c>
-      <c r="CJ6">
-        <v>17.786467300000002</v>
+        <v>383</v>
+      </c>
+      <c r="CI6" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>58.153899357533078</v>
+      </c>
+      <c r="CJ6" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>17.988118765145156</v>
       </c>
       <c r="CK6" t="s">
         <v>356</v>
@@ -7815,17 +7734,13 @@
       <c r="HZ6" t="s">
         <v>356</v>
       </c>
-      <c r="IA6" t="s">
-        <v>356</v>
-      </c>
-      <c r="IB6" t="s">
-        <v>356</v>
-      </c>
-      <c r="IC6">
-        <v>59.732975199999998</v>
-      </c>
-      <c r="ID6">
-        <v>17.786467300000002</v>
+      <c r="IC6" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>58.781275383660798</v>
+      </c>
+      <c r="ID6" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>17.247191065050121</v>
       </c>
       <c r="IE6" t="s">
         <v>356</v>
@@ -7843,12 +7758,6 @@
         <v>356</v>
       </c>
       <c r="IJ6" t="s">
-        <v>356</v>
-      </c>
-      <c r="IK6" t="s">
-        <v>356</v>
-      </c>
-      <c r="IL6" t="s">
         <v>356</v>
       </c>
       <c r="IM6" t="s">
@@ -8113,7 +8022,7 @@
         <v>180204673</v>
       </c>
       <c r="LV6" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="LW6">
         <v>90.043286940000002</v>
@@ -8128,19 +8037,19 @@
         <v>16</v>
       </c>
       <c r="MA6" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="MB6">
         <v>1</v>
       </c>
       <c r="MC6" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="MD6">
         <v>330</v>
       </c>
       <c r="ME6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="MF6">
         <v>1</v>
@@ -8155,7 +8064,7 @@
         <v>74141</v>
       </c>
       <c r="MJ6" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="MK6">
         <v>0</v>
@@ -8170,7 +8079,7 @@
         <v>1</v>
       </c>
       <c r="MO6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="MP6">
         <v>1</v>
@@ -8411,17 +8320,13 @@
       <c r="BX7" t="s">
         <v>356</v>
       </c>
-      <c r="BY7" t="s">
-        <v>356</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>356</v>
-      </c>
-      <c r="CA7">
-        <v>59.553758799999997</v>
-      </c>
-      <c r="CB7">
-        <v>17.5407452</v>
+      <c r="CA7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>58.50558637839049</v>
+      </c>
+      <c r="CB7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.055676925117901</v>
       </c>
       <c r="CC7" t="s">
         <v>356</v>
@@ -8441,23 +8346,29 @@
       <c r="CH7" t="s">
         <v>356</v>
       </c>
-      <c r="CI7">
-        <v>59.529179300000003</v>
-      </c>
-      <c r="CJ7">
-        <v>17.629851800000001</v>
-      </c>
-      <c r="CK7">
-        <v>59.8692919</v>
-      </c>
-      <c r="CL7">
-        <v>17.628217100000001</v>
-      </c>
-      <c r="CM7">
-        <v>59.553758799999997</v>
-      </c>
-      <c r="CN7">
-        <v>17.5407452</v>
+      <c r="CI7" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>58.524982933739594</v>
+      </c>
+      <c r="CJ7" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>17.758594041927758</v>
+      </c>
+      <c r="CK7" s="2">
+        <f t="shared" ref="CK7" ca="1" si="20">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.613422529372009</v>
+      </c>
+      <c r="CL7" s="2">
+        <f t="shared" ref="CL7" ca="1" si="21">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.247602265774979</v>
+      </c>
+      <c r="CM7" s="2">
+        <f t="shared" ref="CM7" ca="1" si="22">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.761634882385835</v>
+      </c>
+      <c r="CN7" s="2">
+        <f t="shared" ref="CN7" ca="1" si="23">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.377428619195214</v>
       </c>
       <c r="CO7" t="s">
         <v>356</v>
@@ -8885,95 +8796,83 @@
       <c r="HZ7" t="s">
         <v>356</v>
       </c>
-      <c r="IA7" t="s">
-        <v>400</v>
-      </c>
-      <c r="IB7" t="s">
-        <v>400</v>
-      </c>
-      <c r="IC7">
-        <v>59.529179300000003</v>
-      </c>
-      <c r="ID7">
-        <v>17.629851800000001</v>
+      <c r="IC7" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>58.008202767853575</v>
+      </c>
+      <c r="ID7" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>17.118586950595272</v>
       </c>
       <c r="IE7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="IF7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="IG7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="IH7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="II7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="IJ7" t="s">
-        <v>404</v>
-      </c>
-      <c r="IK7" t="s">
-        <v>405</v>
-      </c>
-      <c r="IL7" t="s">
-        <v>405</v>
-      </c>
-      <c r="IM7">
-        <v>59.8692919</v>
-      </c>
-      <c r="IN7">
-        <v>17.628217100000001</v>
+        <v>396</v>
+      </c>
+      <c r="IM7" s="2">
+        <f t="shared" ref="IM7" ca="1" si="24">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.608283955657029</v>
+      </c>
+      <c r="IN7" s="2">
+        <f t="shared" ref="IN7" ca="1" si="25">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.529008858290752</v>
       </c>
       <c r="IO7" t="s">
         <v>362</v>
       </c>
       <c r="IP7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="IQ7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="IR7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="IS7" t="s">
         <v>360</v>
       </c>
       <c r="IT7" t="s">
-        <v>368</v>
-      </c>
-      <c r="IU7" t="s">
-        <v>406</v>
-      </c>
-      <c r="IV7" t="s">
-        <v>406</v>
-      </c>
-      <c r="IW7">
-        <v>59.553758799999997</v>
-      </c>
-      <c r="IX7">
-        <v>17.5407452</v>
+        <v>367</v>
+      </c>
+      <c r="IW7" s="2">
+        <f t="shared" ref="IW7" ca="1" si="26">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.340275048740217</v>
+      </c>
+      <c r="IX7" s="2">
+        <f t="shared" ref="IX7" ca="1" si="27">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.344571910354137</v>
       </c>
       <c r="IY7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="IZ7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="JA7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="JB7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="JC7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="JD7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="JE7" t="s">
         <v>356</v>
@@ -9114,7 +9013,7 @@
         <v>2</v>
       </c>
       <c r="KY7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="KZ7">
         <v>0</v>
@@ -9183,7 +9082,7 @@
         <v>180223992</v>
       </c>
       <c r="LV7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="LW7">
         <v>78.864793610000007</v>
@@ -9198,19 +9097,19 @@
         <v>16</v>
       </c>
       <c r="MA7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="MB7">
         <v>1</v>
       </c>
       <c r="MC7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="MD7">
         <v>305</v>
       </c>
       <c r="ME7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="MF7">
         <v>1</v>
@@ -9225,7 +9124,7 @@
         <v>74631</v>
       </c>
       <c r="MJ7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="MK7">
         <v>0</v>
@@ -9240,7 +9139,7 @@
         <v>1</v>
       </c>
       <c r="MO7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="MP7">
         <v>1</v>
@@ -9481,12 +9380,6 @@
       <c r="BX8" t="s">
         <v>356</v>
       </c>
-      <c r="BY8" t="s">
-        <v>356</v>
-      </c>
-      <c r="BZ8" t="s">
-        <v>356</v>
-      </c>
       <c r="CA8" t="s">
         <v>356</v>
       </c>
@@ -9955,12 +9848,6 @@
       <c r="HZ8" t="s">
         <v>356</v>
       </c>
-      <c r="IA8" t="s">
-        <v>356</v>
-      </c>
-      <c r="IB8" t="s">
-        <v>356</v>
-      </c>
       <c r="IC8" t="s">
         <v>356</v>
       </c>
@@ -9985,12 +9872,6 @@
       <c r="IJ8" t="s">
         <v>356</v>
       </c>
-      <c r="IK8" t="s">
-        <v>356</v>
-      </c>
-      <c r="IL8" t="s">
-        <v>356</v>
-      </c>
       <c r="IM8" t="s">
         <v>356</v>
       </c>
@@ -10013,12 +9894,6 @@
         <v>356</v>
       </c>
       <c r="IT8" t="s">
-        <v>356</v>
-      </c>
-      <c r="IU8" t="s">
-        <v>356</v>
-      </c>
-      <c r="IV8" t="s">
         <v>356</v>
       </c>
       <c r="IW8" t="s">
@@ -10253,7 +10128,7 @@
         <v>180224607</v>
       </c>
       <c r="LV8" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="LW8" t="s">
         <v>356</v>
@@ -10280,7 +10155,7 @@
         <v>380</v>
       </c>
       <c r="ME8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="MF8">
         <v>1</v>
@@ -10551,17 +10426,13 @@
       <c r="BX9" t="s">
         <v>356</v>
       </c>
-      <c r="BY9" t="s">
-        <v>356</v>
-      </c>
-      <c r="BZ9" t="s">
-        <v>356</v>
-      </c>
-      <c r="CA9">
-        <v>59.875109100000003</v>
-      </c>
-      <c r="CB9">
-        <v>17.620187699999999</v>
+      <c r="CA9" s="2">
+        <f t="shared" ref="CA9:CA13" ca="1" si="28">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.509540781122794</v>
+      </c>
+      <c r="CB9" s="2">
+        <f t="shared" ref="CB9:CB13" ca="1" si="29">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.892395707545614</v>
       </c>
       <c r="CC9" t="s">
         <v>356</v>
@@ -10581,17 +10452,21 @@
       <c r="CH9" t="s">
         <v>356</v>
       </c>
-      <c r="CI9">
-        <v>59.9396372</v>
-      </c>
-      <c r="CJ9">
-        <v>16.858758900000002</v>
-      </c>
-      <c r="CK9">
-        <v>59.875109100000003</v>
-      </c>
-      <c r="CL9">
-        <v>17.620187699999999</v>
+      <c r="CI9" s="2">
+        <f t="shared" ref="CI9:CI11" ca="1" si="30">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.659234211157283</v>
+      </c>
+      <c r="CJ9" s="2">
+        <f t="shared" ref="CJ9:CJ11" ca="1" si="31">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.399802849418126</v>
+      </c>
+      <c r="CK9" s="2">
+        <f t="shared" ref="CK9:CK13" ca="1" si="32">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.921266981759885</v>
+      </c>
+      <c r="CL9" s="2">
+        <f t="shared" ref="CL9:CL13" ca="1" si="33">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.216144886453936</v>
       </c>
       <c r="CM9" t="s">
         <v>356</v>
@@ -11025,47 +10900,39 @@
       <c r="HZ9" t="s">
         <v>356</v>
       </c>
-      <c r="IA9" t="s">
-        <v>412</v>
-      </c>
-      <c r="IB9" t="s">
-        <v>412</v>
-      </c>
-      <c r="IC9">
-        <v>59.9396372</v>
-      </c>
-      <c r="ID9">
-        <v>16.858758900000002</v>
+      <c r="IC9" s="2">
+        <f t="shared" ref="IC9:IC13" ca="1" si="34">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.779356604730445</v>
+      </c>
+      <c r="ID9" s="2">
+        <f t="shared" ref="ID9:ID13" ca="1" si="35">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.46453824414375</v>
       </c>
       <c r="IE9" t="s">
         <v>362</v>
       </c>
       <c r="IF9" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="IG9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="IH9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="II9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="IJ9" t="s">
-        <v>368</v>
-      </c>
-      <c r="IK9" t="s">
-        <v>356</v>
-      </c>
-      <c r="IL9" t="s">
-        <v>356</v>
-      </c>
-      <c r="IM9">
-        <v>59.875109100000003</v>
-      </c>
-      <c r="IN9">
-        <v>17.620187699999999</v>
+        <v>367</v>
+      </c>
+      <c r="IM9" s="2">
+        <f t="shared" ref="IM9" ca="1" si="36">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.834839827851049</v>
+      </c>
+      <c r="IN9" s="2">
+        <f t="shared" ref="IN9" ca="1" si="37">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.71784299374184</v>
       </c>
       <c r="IO9" t="s">
         <v>356</v>
@@ -11083,12 +10950,6 @@
         <v>356</v>
       </c>
       <c r="IT9" t="s">
-        <v>356</v>
-      </c>
-      <c r="IU9" t="s">
-        <v>356</v>
-      </c>
-      <c r="IV9" t="s">
         <v>356</v>
       </c>
       <c r="IW9" t="s">
@@ -11323,7 +11184,7 @@
         <v>180209879</v>
       </c>
       <c r="LV9" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="LW9">
         <v>85.999561650000004</v>
@@ -11350,7 +11211,7 @@
         <v>380</v>
       </c>
       <c r="ME9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="MF9">
         <v>1</v>
@@ -11621,47 +11482,47 @@
       <c r="BX10" t="s">
         <v>356</v>
       </c>
-      <c r="BY10" t="s">
-        <v>413</v>
-      </c>
-      <c r="BZ10" t="s">
-        <v>413</v>
-      </c>
-      <c r="CA10">
-        <v>59.858029700000003</v>
-      </c>
-      <c r="CB10">
-        <v>17.6126024</v>
+      <c r="CA10" s="2">
+        <f t="shared" ca="1" si="28"/>
+        <v>58.739765840678402</v>
+      </c>
+      <c r="CB10" s="2">
+        <f t="shared" ca="1" si="29"/>
+        <v>17.360908621765827</v>
       </c>
       <c r="CC10" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="CD10" t="s">
+        <v>366</v>
+      </c>
+      <c r="CE10" t="s">
         <v>367</v>
       </c>
-      <c r="CE10" t="s">
-        <v>368</v>
-      </c>
       <c r="CF10" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="CG10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="CH10" t="s">
-        <v>416</v>
-      </c>
-      <c r="CI10">
-        <v>59.853842700000001</v>
-      </c>
-      <c r="CJ10">
-        <v>17.6280374</v>
-      </c>
-      <c r="CK10">
-        <v>59.858029700000003</v>
-      </c>
-      <c r="CL10">
-        <v>17.6126024</v>
+        <v>404</v>
+      </c>
+      <c r="CI10" s="2">
+        <f t="shared" ca="1" si="30"/>
+        <v>58.223216056447136</v>
+      </c>
+      <c r="CJ10" s="2">
+        <f t="shared" ca="1" si="31"/>
+        <v>17.45097586576885</v>
+      </c>
+      <c r="CK10" s="2">
+        <f t="shared" ca="1" si="32"/>
+        <v>58.235134243133643</v>
+      </c>
+      <c r="CL10" s="2">
+        <f t="shared" ca="1" si="33"/>
+        <v>17.698198801028994</v>
       </c>
       <c r="CM10" t="s">
         <v>356</v>
@@ -12095,71 +11956,57 @@
       <c r="HZ10" t="s">
         <v>356</v>
       </c>
-      <c r="IA10" t="s">
-        <v>417</v>
-      </c>
-      <c r="IB10" t="s">
-        <v>417</v>
-      </c>
-      <c r="IC10">
-        <v>59.853842700000001</v>
-      </c>
-      <c r="ID10">
-        <v>17.6280374</v>
+      <c r="IC10" s="2">
+        <f t="shared" ca="1" si="34"/>
+        <v>58.30871774535364</v>
+      </c>
+      <c r="ID10" s="2">
+        <f t="shared" ca="1" si="35"/>
+        <v>17.463179860845653</v>
       </c>
       <c r="IE10" t="s">
         <v>362</v>
       </c>
       <c r="IF10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="IG10" t="s">
         <v>360</v>
       </c>
       <c r="IH10" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="II10" t="s">
         <v>360</v>
       </c>
       <c r="IJ10" t="s">
-        <v>419</v>
-      </c>
-      <c r="IK10" t="s">
-        <v>413</v>
-      </c>
-      <c r="IL10" t="s">
-        <v>413</v>
-      </c>
-      <c r="IM10">
-        <v>59.858029700000003</v>
-      </c>
-      <c r="IN10">
-        <v>17.6126024</v>
+        <v>406</v>
+      </c>
+      <c r="IM10" s="2">
+        <f t="shared" ref="IM10" ca="1" si="38">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.316199595570964</v>
+      </c>
+      <c r="IN10" s="2">
+        <f t="shared" ref="IN10" ca="1" si="39">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.352794249966674</v>
       </c>
       <c r="IO10" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="IP10" t="s">
+        <v>366</v>
+      </c>
+      <c r="IQ10" t="s">
         <v>367</v>
       </c>
-      <c r="IQ10" t="s">
-        <v>368</v>
-      </c>
       <c r="IR10" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="IS10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="IT10" t="s">
-        <v>420</v>
-      </c>
-      <c r="IU10" t="s">
-        <v>356</v>
-      </c>
-      <c r="IV10" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="IW10" t="s">
         <v>356</v>
@@ -12324,7 +12171,7 @@
         <v>6</v>
       </c>
       <c r="KY10" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="KZ10">
         <v>0</v>
@@ -12393,7 +12240,7 @@
         <v>180212635</v>
       </c>
       <c r="LV10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="LW10">
         <v>1.956721242</v>
@@ -12420,7 +12267,7 @@
         <v>380</v>
       </c>
       <c r="ME10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="MF10">
         <v>1</v>
@@ -12691,59 +12538,63 @@
       <c r="BX11">
         <v>99</v>
       </c>
-      <c r="BY11" t="s">
-        <v>356</v>
-      </c>
-      <c r="BZ11" t="s">
-        <v>422</v>
-      </c>
-      <c r="CA11">
-        <v>59.906074699999998</v>
-      </c>
-      <c r="CB11">
-        <v>17.7366779</v>
+      <c r="CA11" s="2">
+        <f t="shared" ca="1" si="28"/>
+        <v>58.866275148929475</v>
+      </c>
+      <c r="CB11" s="2">
+        <f t="shared" ca="1" si="29"/>
+        <v>17.186815480326032</v>
       </c>
       <c r="CC11" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="CD11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="CE11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="CF11">
         <v>76040</v>
       </c>
       <c r="CG11" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="CH11" t="s">
-        <v>420</v>
-      </c>
-      <c r="CI11">
-        <v>59.867705200000003</v>
-      </c>
-      <c r="CJ11">
-        <v>17.6858392</v>
-      </c>
-      <c r="CK11">
-        <v>59.857768800000002</v>
-      </c>
-      <c r="CL11">
-        <v>17.649811400000001</v>
-      </c>
-      <c r="CM11">
-        <v>59.867705200000003</v>
-      </c>
-      <c r="CN11">
-        <v>17.6858392</v>
-      </c>
-      <c r="CO11">
-        <v>59.850021699999999</v>
-      </c>
-      <c r="CP11">
-        <v>17.677442899999999</v>
+        <v>407</v>
+      </c>
+      <c r="CI11" s="2">
+        <f t="shared" ca="1" si="30"/>
+        <v>58.127597375777192</v>
+      </c>
+      <c r="CJ11" s="2">
+        <f t="shared" ca="1" si="31"/>
+        <v>17.823341123199313</v>
+      </c>
+      <c r="CK11" s="2">
+        <f t="shared" ca="1" si="32"/>
+        <v>58.628103057796466</v>
+      </c>
+      <c r="CL11" s="2">
+        <f t="shared" ca="1" si="33"/>
+        <v>17.39596968490957</v>
+      </c>
+      <c r="CM11" s="2">
+        <f t="shared" ref="CM11" ca="1" si="40">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.75293792916176</v>
+      </c>
+      <c r="CN11" s="2">
+        <f t="shared" ref="CN11" ca="1" si="41">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.129283367557665</v>
+      </c>
+      <c r="CO11" s="2">
+        <f t="shared" ref="CO11" ca="1" si="42">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.430345603289624</v>
+      </c>
+      <c r="CP11" s="2">
+        <f t="shared" ref="CP11" ca="1" si="43">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.87573759903243</v>
       </c>
       <c r="CQ11" s="1">
         <v>0.3263888888888889</v>
@@ -13165,125 +13016,115 @@
       <c r="HZ11">
         <v>1</v>
       </c>
-      <c r="IA11" t="s">
-        <v>424</v>
-      </c>
-      <c r="IB11" t="s">
-        <v>425</v>
-      </c>
-      <c r="IC11">
-        <v>59.867705200000003</v>
-      </c>
-      <c r="ID11">
-        <v>17.6858392</v>
+      <c r="IC11" s="2">
+        <f t="shared" ca="1" si="34"/>
+        <v>58.655248372813269</v>
+      </c>
+      <c r="ID11" s="2">
+        <f t="shared" ca="1" si="35"/>
+        <v>17.559548350875975</v>
       </c>
       <c r="IE11" t="s">
         <v>362</v>
       </c>
       <c r="IF11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="IG11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="IH11" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="II11" t="s">
         <v>360</v>
       </c>
       <c r="IJ11" t="s">
-        <v>427</v>
-      </c>
-      <c r="IK11" t="s">
-        <v>428</v>
-      </c>
-      <c r="IL11" t="s">
-        <v>429</v>
-      </c>
-      <c r="IM11">
-        <v>59.857768800000002</v>
-      </c>
-      <c r="IN11">
-        <v>17.649811400000001</v>
+        <v>411</v>
+      </c>
+      <c r="IM11" s="2">
+        <f t="shared" ref="IM11" ca="1" si="44">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.242424186622983</v>
+      </c>
+      <c r="IN11" s="2">
+        <f t="shared" ref="IN11" ca="1" si="45">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.390387235972916</v>
       </c>
       <c r="IO11" t="s">
         <v>362</v>
       </c>
       <c r="IP11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="IQ11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="IR11" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="IS11" t="s">
         <v>360</v>
       </c>
       <c r="IT11" t="s">
-        <v>431</v>
-      </c>
-      <c r="IU11" t="s">
-        <v>432</v>
-      </c>
-      <c r="IV11" t="s">
-        <v>433</v>
-      </c>
-      <c r="IW11">
-        <v>59.867705200000003</v>
-      </c>
-      <c r="IX11">
-        <v>17.6858392</v>
+        <v>413</v>
+      </c>
+      <c r="IW11" s="2">
+        <f t="shared" ref="IW11:IW12" ca="1" si="46">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.112297105142211</v>
+      </c>
+      <c r="IX11" s="2">
+        <f t="shared" ref="IX11:IX12" ca="1" si="47">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.647077802378337</v>
       </c>
       <c r="IY11" t="s">
         <v>362</v>
       </c>
       <c r="IZ11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="JA11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="JB11" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="JC11" t="s">
         <v>360</v>
       </c>
       <c r="JD11" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="JE11" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="JF11" t="s">
-        <v>435</v>
-      </c>
-      <c r="JG11">
-        <v>59.850021699999999</v>
-      </c>
-      <c r="JH11">
-        <v>17.677442899999999</v>
+        <v>415</v>
+      </c>
+      <c r="JG11" s="2">
+        <f t="shared" ref="JG11" ca="1" si="48">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.60734278464782</v>
+      </c>
+      <c r="JH11" s="2">
+        <f t="shared" ref="JH11" ca="1" si="49">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.368136139043234</v>
       </c>
       <c r="JI11" t="s">
         <v>362</v>
       </c>
       <c r="JJ11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="JK11" t="s">
         <v>360</v>
       </c>
       <c r="JL11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="JM11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="JN11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="JO11" t="s">
         <v>356</v>
@@ -13291,11 +13132,13 @@
       <c r="JP11" t="s">
         <v>356</v>
       </c>
-      <c r="JQ11">
-        <v>59.906074699999998</v>
-      </c>
-      <c r="JR11">
-        <v>17.7366779</v>
+      <c r="JQ11" s="2">
+        <f t="shared" ref="JQ11" ca="1" si="50">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.172295134809019</v>
+      </c>
+      <c r="JR11" s="2">
+        <f t="shared" ref="JR11" ca="1" si="51">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.086268822407309</v>
       </c>
       <c r="JS11" t="s">
         <v>356</v>
@@ -13463,7 +13306,7 @@
         <v>180204038</v>
       </c>
       <c r="LV11" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="LW11">
         <v>18.765751999999999</v>
@@ -13761,53 +13604,55 @@
       <c r="BX12" t="s">
         <v>356</v>
       </c>
-      <c r="BY12" t="s">
-        <v>436</v>
-      </c>
-      <c r="BZ12" t="s">
-        <v>437</v>
-      </c>
-      <c r="CA12">
-        <v>59.556164600000002</v>
-      </c>
-      <c r="CB12">
-        <v>17.5476232</v>
+      <c r="CA12" s="2">
+        <f t="shared" ca="1" si="28"/>
+        <v>58.046170373000422</v>
+      </c>
+      <c r="CB12" s="2">
+        <f t="shared" ca="1" si="29"/>
+        <v>17.2424256437968</v>
       </c>
       <c r="CC12" t="s">
         <v>362</v>
       </c>
       <c r="CD12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="CE12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="CF12" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="CG12" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="CH12" t="s">
-        <v>439</v>
-      </c>
-      <c r="CI12">
-        <v>59.389179900000002</v>
-      </c>
-      <c r="CJ12">
-        <v>17.8782383</v>
-      </c>
-      <c r="CK12">
-        <v>59.389179900000002</v>
-      </c>
-      <c r="CL12">
-        <v>17.8782383</v>
-      </c>
-      <c r="CM12">
-        <v>59.556164600000002</v>
-      </c>
-      <c r="CN12">
-        <v>17.5476232</v>
+        <v>417</v>
+      </c>
+      <c r="CI12" s="2">
+        <f t="shared" ref="CI12" ca="1" si="52">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.841772179083797</v>
+      </c>
+      <c r="CJ12" s="2">
+        <f t="shared" ref="CJ12" ca="1" si="53">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.687320071419485</v>
+      </c>
+      <c r="CK12" s="2">
+        <f t="shared" ca="1" si="32"/>
+        <v>58.829341863470709</v>
+      </c>
+      <c r="CL12" s="2">
+        <f t="shared" ca="1" si="33"/>
+        <v>17.020372453495895</v>
+      </c>
+      <c r="CM12" s="2">
+        <f t="shared" ref="CM12" ca="1" si="54">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.015469637928454</v>
+      </c>
+      <c r="CN12" s="2">
+        <f t="shared" ref="CN12" ca="1" si="55">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.504931321787357</v>
       </c>
       <c r="CO12" t="s">
         <v>356</v>
@@ -14235,95 +14080,83 @@
       <c r="HZ12" t="s">
         <v>356</v>
       </c>
-      <c r="IA12" t="s">
-        <v>440</v>
-      </c>
-      <c r="IB12" t="s">
-        <v>440</v>
-      </c>
-      <c r="IC12">
-        <v>59.389179900000002</v>
-      </c>
-      <c r="ID12">
-        <v>17.8782383</v>
+      <c r="IC12" s="2">
+        <f t="shared" ca="1" si="34"/>
+        <v>58.900982760507475</v>
+      </c>
+      <c r="ID12" s="2">
+        <f t="shared" ca="1" si="35"/>
+        <v>17.581349731253567</v>
       </c>
       <c r="IE12" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="IF12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="IG12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="IH12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="II12" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="IJ12" t="s">
-        <v>368</v>
-      </c>
-      <c r="IK12" t="s">
-        <v>440</v>
-      </c>
-      <c r="IL12" t="s">
-        <v>440</v>
-      </c>
-      <c r="IM12">
-        <v>59.389179900000002</v>
-      </c>
-      <c r="IN12">
-        <v>17.8782383</v>
+        <v>367</v>
+      </c>
+      <c r="IM12" s="2">
+        <f t="shared" ref="IM12" ca="1" si="56">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.029943000768171</v>
+      </c>
+      <c r="IN12" s="2">
+        <f t="shared" ref="IN12" ca="1" si="57">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.4756993015402</v>
       </c>
       <c r="IO12" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="IP12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="IQ12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="IR12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="IS12" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="IT12" t="s">
-        <v>368</v>
-      </c>
-      <c r="IU12" t="s">
-        <v>436</v>
-      </c>
-      <c r="IV12" t="s">
-        <v>437</v>
-      </c>
-      <c r="IW12">
-        <v>59.556164600000002</v>
-      </c>
-      <c r="IX12">
-        <v>17.5476232</v>
+        <v>367</v>
+      </c>
+      <c r="IW12" s="2">
+        <f t="shared" ca="1" si="46"/>
+        <v>58.914385068444943</v>
+      </c>
+      <c r="IX12" s="2">
+        <f t="shared" ca="1" si="47"/>
+        <v>17.349278674492535</v>
       </c>
       <c r="IY12" t="s">
         <v>362</v>
       </c>
       <c r="IZ12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="JA12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="JB12" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="JC12" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="JD12" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="JE12" t="s">
         <v>356</v>
@@ -14533,7 +14366,7 @@
         <v>180223684</v>
       </c>
       <c r="LV12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="LW12">
         <v>52.601323170000001</v>
@@ -14548,13 +14381,13 @@
         <v>16</v>
       </c>
       <c r="MA12" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="MB12">
         <v>1</v>
       </c>
       <c r="MC12" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="MD12">
         <v>305</v>
@@ -14575,7 +14408,7 @@
         <v>74631</v>
       </c>
       <c r="MJ12" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="MK12">
         <v>0</v>
@@ -14590,7 +14423,7 @@
         <v>1</v>
       </c>
       <c r="MO12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="MP12">
         <v>1</v>
@@ -14831,17 +14664,13 @@
       <c r="BX13" t="s">
         <v>356</v>
       </c>
-      <c r="BY13" t="s">
-        <v>356</v>
-      </c>
-      <c r="BZ13" t="s">
-        <v>356</v>
-      </c>
-      <c r="CA13">
-        <v>59.636750499999998</v>
-      </c>
-      <c r="CB13">
-        <v>17.081654</v>
+      <c r="CA13" s="2">
+        <f t="shared" ca="1" si="28"/>
+        <v>58.365113070062939</v>
+      </c>
+      <c r="CB13" s="2">
+        <f t="shared" ca="1" si="29"/>
+        <v>17.009482166893509</v>
       </c>
       <c r="CC13" t="s">
         <v>356</v>
@@ -14861,17 +14690,21 @@
       <c r="CH13" t="s">
         <v>356</v>
       </c>
-      <c r="CI13">
-        <v>59.636750499999998</v>
-      </c>
-      <c r="CJ13">
-        <v>17.081654</v>
-      </c>
-      <c r="CK13">
-        <v>59.636750499999998</v>
-      </c>
-      <c r="CL13">
-        <v>17.081654</v>
+      <c r="CI13" s="2">
+        <f t="shared" ref="CI13" ca="1" si="58">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.289787809779945</v>
+      </c>
+      <c r="CJ13" s="2">
+        <f t="shared" ref="CJ13" ca="1" si="59">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.589573972842853</v>
+      </c>
+      <c r="CK13" s="2">
+        <f t="shared" ca="1" si="32"/>
+        <v>58.908296141458592</v>
+      </c>
+      <c r="CL13" s="2">
+        <f t="shared" ca="1" si="33"/>
+        <v>17.106510239517977</v>
       </c>
       <c r="CM13" t="s">
         <v>356</v>
@@ -15305,35 +15138,31 @@
       <c r="HZ13" t="s">
         <v>356</v>
       </c>
-      <c r="IA13" t="s">
-        <v>442</v>
-      </c>
-      <c r="IB13" t="s">
-        <v>442</v>
-      </c>
-      <c r="IC13">
-        <v>59.636750499999998</v>
-      </c>
-      <c r="ID13">
-        <v>17.081654</v>
+      <c r="IC13" s="2">
+        <f t="shared" ca="1" si="34"/>
+        <v>58.584330267706648</v>
+      </c>
+      <c r="ID13" s="2">
+        <f t="shared" ca="1" si="35"/>
+        <v>17.174220153404956</v>
       </c>
       <c r="IE13" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="IF13" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="IG13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="IH13" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="II13" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="IJ13" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="IK13" t="s">
         <v>356</v>
@@ -15341,11 +15170,13 @@
       <c r="IL13" t="s">
         <v>356</v>
       </c>
-      <c r="IM13">
-        <v>59.636750499999998</v>
-      </c>
-      <c r="IN13">
-        <v>17.081654</v>
+      <c r="IM13" s="2">
+        <f t="shared" ref="IM13" ca="1" si="60">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.015804372882343</v>
+      </c>
+      <c r="IN13" s="2">
+        <f t="shared" ref="IN13" ca="1" si="61">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.635816007274627</v>
       </c>
       <c r="IO13" t="s">
         <v>356</v>
@@ -15534,7 +15365,7 @@
         <v>2</v>
       </c>
       <c r="KY13" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="KZ13">
         <v>0</v>
@@ -15603,7 +15434,7 @@
         <v>180217691</v>
       </c>
       <c r="LV13" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="LW13" t="s">
         <v>356</v>
@@ -15618,19 +15449,19 @@
         <v>16</v>
       </c>
       <c r="MA13" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="MB13">
         <v>3</v>
       </c>
       <c r="MC13" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="MD13">
         <v>381</v>
       </c>
       <c r="ME13" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="MF13">
         <v>1</v>
@@ -15645,7 +15476,7 @@
         <v>74949</v>
       </c>
       <c r="MJ13" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="MK13">
         <v>0</v>
@@ -15660,7 +15491,7 @@
         <v>1</v>
       </c>
       <c r="MO13" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="MP13">
         <v>1</v>
@@ -15901,12 +15732,6 @@
       <c r="BX14" t="s">
         <v>356</v>
       </c>
-      <c r="BY14" t="s">
-        <v>356</v>
-      </c>
-      <c r="BZ14" t="s">
-        <v>356</v>
-      </c>
       <c r="CA14" t="s">
         <v>356</v>
       </c>
@@ -16373,12 +16198,6 @@
         <v>356</v>
       </c>
       <c r="HZ14" t="s">
-        <v>356</v>
-      </c>
-      <c r="IA14" t="s">
-        <v>356</v>
-      </c>
-      <c r="IB14" t="s">
         <v>356</v>
       </c>
       <c r="IC14" t="s">
@@ -16673,7 +16492,7 @@
         <v>180224061</v>
       </c>
       <c r="LV14" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="LW14" t="s">
         <v>356</v>
@@ -16700,7 +16519,7 @@
         <v>380</v>
       </c>
       <c r="ME14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="MF14">
         <v>1</v>
@@ -16715,7 +16534,7 @@
         <v>74364</v>
       </c>
       <c r="MJ14" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="MK14">
         <v>0</v>
@@ -16730,7 +16549,7 @@
         <v>1</v>
       </c>
       <c r="MO14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="MP14">
         <v>1</v>
@@ -16759,7 +16578,7 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -16971,12 +16790,6 @@
       <c r="BX15" t="s">
         <v>356</v>
       </c>
-      <c r="BY15" t="s">
-        <v>356</v>
-      </c>
-      <c r="BZ15" t="s">
-        <v>356</v>
-      </c>
       <c r="CA15" t="s">
         <v>356</v>
       </c>
@@ -17443,12 +17256,6 @@
         <v>356</v>
       </c>
       <c r="HZ15" t="s">
-        <v>356</v>
-      </c>
-      <c r="IA15" t="s">
-        <v>356</v>
-      </c>
-      <c r="IB15" t="s">
         <v>356</v>
       </c>
       <c r="IC15" t="s">
@@ -17674,7 +17481,7 @@
         <v>5</v>
       </c>
       <c r="KY15" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="KZ15">
         <v>1</v>
@@ -17743,7 +17550,7 @@
         <v>180212997</v>
       </c>
       <c r="LV15" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="LW15" t="s">
         <v>356</v>
@@ -17770,7 +17577,7 @@
         <v>380</v>
       </c>
       <c r="ME15" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="MF15">
         <v>1</v>
@@ -17859,7 +17666,7 @@
         <v>356</v>
       </c>
       <c r="P16" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -18041,12 +17848,6 @@
       <c r="BX16" t="s">
         <v>356</v>
       </c>
-      <c r="BY16" t="s">
-        <v>356</v>
-      </c>
-      <c r="BZ16" t="s">
-        <v>356</v>
-      </c>
       <c r="CA16" t="s">
         <v>356</v>
       </c>
@@ -18513,12 +18314,6 @@
         <v>356</v>
       </c>
       <c r="HZ16" t="s">
-        <v>356</v>
-      </c>
-      <c r="IA16" t="s">
-        <v>356</v>
-      </c>
-      <c r="IB16" t="s">
         <v>356</v>
       </c>
       <c r="IC16" t="s">
@@ -18744,7 +18539,7 @@
         <v>5</v>
       </c>
       <c r="KY16" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="KZ16">
         <v>0</v>
@@ -18813,7 +18608,7 @@
         <v>180205634</v>
       </c>
       <c r="LV16" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="LW16" t="s">
         <v>356</v>
@@ -18828,13 +18623,13 @@
         <v>16</v>
       </c>
       <c r="MA16" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="MB16">
         <v>3</v>
       </c>
       <c r="MC16" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="MD16">
         <v>381</v>
@@ -18855,7 +18650,7 @@
         <v>74945</v>
       </c>
       <c r="MJ16" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="MK16">
         <v>0</v>
@@ -18870,7 +18665,7 @@
         <v>1</v>
       </c>
       <c r="MO16" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="MP16">
         <v>1</v>
@@ -19111,17 +18906,13 @@
       <c r="BX17" t="s">
         <v>356</v>
       </c>
-      <c r="BY17" t="s">
-        <v>356</v>
-      </c>
-      <c r="BZ17" t="s">
-        <v>356</v>
-      </c>
-      <c r="CA17">
-        <v>59.873267300000002</v>
-      </c>
-      <c r="CB17">
-        <v>17.675578300000002</v>
+      <c r="CA17" s="2">
+        <f t="shared" ref="CA17" ca="1" si="62">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.098379315380221</v>
+      </c>
+      <c r="CB17" s="2">
+        <f t="shared" ref="CB17" ca="1" si="63">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.878071063031548</v>
       </c>
       <c r="CC17" t="s">
         <v>356</v>
@@ -19141,17 +18932,21 @@
       <c r="CH17" t="s">
         <v>356</v>
       </c>
-      <c r="CI17">
-        <v>59.882984</v>
-      </c>
-      <c r="CJ17">
-        <v>17.661606599999999</v>
-      </c>
-      <c r="CK17">
-        <v>59.873267300000002</v>
-      </c>
-      <c r="CL17">
-        <v>17.675578300000002</v>
+      <c r="CI17" s="2">
+        <f t="shared" ref="CI17" ca="1" si="64">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.430796431149098</v>
+      </c>
+      <c r="CJ17" s="2">
+        <f t="shared" ref="CJ17" ca="1" si="65">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.26310499322831</v>
+      </c>
+      <c r="CK17" s="2">
+        <f t="shared" ref="CK17" ca="1" si="66">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.100430884160517</v>
+      </c>
+      <c r="CL17" s="2">
+        <f t="shared" ref="CL17" ca="1" si="67">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.458999112795784</v>
       </c>
       <c r="CM17" t="s">
         <v>356</v>
@@ -19585,35 +19380,31 @@
       <c r="HZ17" t="s">
         <v>356</v>
       </c>
-      <c r="IA17" t="s">
-        <v>451</v>
-      </c>
-      <c r="IB17" t="s">
-        <v>452</v>
-      </c>
-      <c r="IC17">
-        <v>59.882984</v>
-      </c>
-      <c r="ID17">
-        <v>17.661606599999999</v>
+      <c r="IC17" s="2">
+        <f t="shared" ref="IC17" ca="1" si="68">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.104567092637062</v>
+      </c>
+      <c r="ID17" s="2">
+        <f t="shared" ref="ID17" ca="1" si="69">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.237479589046757</v>
       </c>
       <c r="IE17" t="s">
         <v>362</v>
       </c>
       <c r="IF17" t="s">
+        <v>366</v>
+      </c>
+      <c r="IG17" t="s">
         <v>367</v>
       </c>
-      <c r="IG17" t="s">
-        <v>368</v>
-      </c>
       <c r="IH17" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="II17" t="s">
         <v>360</v>
       </c>
       <c r="IJ17" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="IK17" t="s">
         <v>356</v>
@@ -19621,11 +19412,13 @@
       <c r="IL17" t="s">
         <v>356</v>
       </c>
-      <c r="IM17">
-        <v>59.873267300000002</v>
-      </c>
-      <c r="IN17">
-        <v>17.675578300000002</v>
+      <c r="IM17" s="2">
+        <f t="shared" ref="IM17" ca="1" si="70">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.118324702016928</v>
+      </c>
+      <c r="IN17" s="2">
+        <f t="shared" ref="IN17" ca="1" si="71">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.977822471331141</v>
       </c>
       <c r="IO17" t="s">
         <v>356</v>
@@ -19883,7 +19676,7 @@
         <v>180209964</v>
       </c>
       <c r="LV17" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="LW17">
         <v>2.6614040449999998</v>
@@ -19910,7 +19703,7 @@
         <v>380</v>
       </c>
       <c r="ME17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="MF17">
         <v>1</v>
@@ -20181,12 +19974,6 @@
       <c r="BX18" t="s">
         <v>356</v>
       </c>
-      <c r="BY18" t="s">
-        <v>356</v>
-      </c>
-      <c r="BZ18" t="s">
-        <v>356</v>
-      </c>
       <c r="CA18" t="s">
         <v>356</v>
       </c>
@@ -20953,7 +20740,7 @@
         <v>180212780</v>
       </c>
       <c r="LV18" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="LW18" t="s">
         <v>356</v>
@@ -20968,13 +20755,13 @@
         <v>16</v>
       </c>
       <c r="MA18" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="MB18">
         <v>1</v>
       </c>
       <c r="MC18" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="MD18">
         <v>305</v>
@@ -20995,7 +20782,7 @@
         <v>74633</v>
       </c>
       <c r="MJ18" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="MK18">
         <v>0</v>
@@ -21010,7 +20797,7 @@
         <v>1</v>
       </c>
       <c r="MO18" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="MP18">
         <v>1</v>
@@ -21251,12 +21038,6 @@
       <c r="BX19" t="s">
         <v>356</v>
       </c>
-      <c r="BY19" t="s">
-        <v>356</v>
-      </c>
-      <c r="BZ19" t="s">
-        <v>356</v>
-      </c>
       <c r="CA19" t="s">
         <v>356</v>
       </c>
@@ -22023,7 +21804,7 @@
         <v>180206095</v>
       </c>
       <c r="LV19" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="LW19" t="s">
         <v>356</v>
@@ -22321,41 +22102,39 @@
       <c r="BX20" t="s">
         <v>356</v>
       </c>
-      <c r="BY20" t="s">
-        <v>455</v>
-      </c>
-      <c r="BZ20" t="s">
-        <v>455</v>
-      </c>
-      <c r="CA20">
-        <v>59.650259699999999</v>
-      </c>
-      <c r="CB20">
-        <v>17.9295735</v>
+      <c r="CA20" s="2">
+        <f t="shared" ref="CA20" ca="1" si="72">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.903658011398136</v>
+      </c>
+      <c r="CB20" s="2">
+        <f t="shared" ref="CB20" ca="1" si="73">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.621166098812935</v>
       </c>
       <c r="CC20" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="CD20" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="CE20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="CF20" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="CG20" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="CH20" t="s">
-        <v>458</v>
-      </c>
-      <c r="CI20">
-        <v>59.789470700000003</v>
-      </c>
-      <c r="CJ20">
-        <v>17.647027399999999</v>
+        <v>431</v>
+      </c>
+      <c r="CI20" s="2">
+        <f t="shared" ref="CI20" ca="1" si="74">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.048610738632881</v>
+      </c>
+      <c r="CJ20" s="2">
+        <f t="shared" ref="CJ20" ca="1" si="75">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.698455870324999</v>
       </c>
       <c r="CK20" t="s">
         <v>356</v>
@@ -22801,11 +22580,13 @@
       <c r="IB20" t="s">
         <v>356</v>
       </c>
-      <c r="IC20">
-        <v>59.789470700000003</v>
-      </c>
-      <c r="ID20">
-        <v>17.647027399999999</v>
+      <c r="IC20" s="2">
+        <f t="shared" ref="IC20" ca="1" si="76">RANDBETWEEN(58,58)+RAND()</f>
+        <v>58.072115790025215</v>
+      </c>
+      <c r="ID20" s="2">
+        <f t="shared" ref="ID20" ca="1" si="77">RANDBETWEEN(17,17)+RAND()</f>
+        <v>17.800097751171762</v>
       </c>
       <c r="IE20" t="s">
         <v>356</v>
@@ -23093,7 +22874,7 @@
         <v>180205803</v>
       </c>
       <c r="LV20" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="LW20">
         <v>22.121096949999998</v>
